--- a/spec/files/0_1_09_small_list_repeat_vars.xlsx
+++ b/spec/files/0_1_09_small_list_repeat_vars.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2877,15 +2877,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1233">
@@ -4524,9 +4524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4837,14 +4835,14 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
@@ -5829,7 +5827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
@@ -5871,50 +5869,50 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>476</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="28" t="s">
         <v>477</v>
       </c>
       <c r="H3" s="11"/>
